--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健混合C</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>83.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.51</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>国投瑞银医疗保健混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004549</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达消费主题灵活配置混合</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -790,25 +900,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>24.78</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009904</t>
+          <t>004549</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强A</t>
+          <t>富安达消费主题灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009905</t>
+          <t>510660</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强C</t>
+          <t>华夏上证医药卫生ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>009904</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>民生加银中证200指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>510660</t>
+          <t>009905</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华夏上证医药卫生ETF</t>
+          <t>民生加银中证200指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.94</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.16</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2239,13 +2326,453 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2671,7 +2672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2682,17 +2683,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2702,14 +2723,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.49</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2718,14 +2761,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.94</v>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2734,14 +2799,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2750,14 +2837,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.16</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2766,13 +2875,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3564,7 +3565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3575,17 +3576,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3595,14 +3616,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.48</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3611,14 +3654,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.49</v>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3627,14 +3692,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.94</v>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3643,14 +3730,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3659,14 +3768,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.16</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3675,13 +3806,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>5.08</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.48</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>3.49</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.94</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001257</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2987,7 +3516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3157,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3745,7 +4274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
+++ b/数据整理/stocks/A股/上证主板/601607-上海医药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>8.01</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>5.08</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.48</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>3.49</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.94</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -616,7 +633,993 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013266</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2304,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,7 +3817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3516,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3686,7 +4689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4272,250 +5275,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3053</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1940</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011082</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1940</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>